--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>785149.2347757494</v>
+        <v>823037.5650442723</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7485698.853767318</v>
+        <v>7510951.380841161</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>350.4574532874179</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>380.8327385893405</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>11.21550034727314</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>30.49180066115396</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>347.6160279099794</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>296.5441906485603</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8.751128163235235</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,7 +1117,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>47.06008056049281</v>
+        <v>50.79226062610558</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>57.55526645593836</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454846</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>129.3727203283468</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>354.0586845844107</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>86.27769679771725</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>154.0254420454365</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>147.3525275309915</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,13 +1819,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>191.0148624863778</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>129.713962706846</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1853,16 +1853,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>155.5776225602624</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>129.7853418074783</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907185</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>73.29899740799668</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218097</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2093,13 +2093,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>129.3727203283468</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>208.2631588479965</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2494,7 +2494,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>166.3197703738368</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>190.4707957071075</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>56.72042565247654</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152.5168019860618</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>82.62483121292118</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3247,7 +3247,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>39.88277234054667</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3424,16 +3424,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>56.95997704284527</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>71.95361350212711</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T40" t="n">
-        <v>99.28616603324218</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225818</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.516801986061</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>145.899920454947</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225723</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>861.8106590603877</v>
       </c>
       <c r="C2" t="n">
-        <v>449.9616071239689</v>
+        <v>827.708590284215</v>
       </c>
       <c r="D2" t="n">
-        <v>418.0922263388175</v>
+        <v>795.8392094990636</v>
       </c>
       <c r="E2" t="n">
-        <v>388.3578855375167</v>
+        <v>766.1048686977629</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.2374391069707</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.2374391069707</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031048</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>1092.064618311668</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>1132.008730489133</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>1132.008730489133</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1132.008730489133</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489133</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797696</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756291</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509348</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509348</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509348</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509348</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>2092.747277443174</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>1687.891822854208</v>
       </c>
       <c r="X2" t="n">
-        <v>510.5685620045878</v>
+        <v>1268.749359433518</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>884.0698255048915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414798</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.822568378122</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246753</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.611864851629</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677906</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397448</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064456</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768569</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985421</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985421</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985421</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985421</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985421</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.712964807981</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031422</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420221</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212429</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>681.756833151444</v>
+        <v>999.5920590820117</v>
       </c>
       <c r="C4" t="n">
-        <v>509.1951216346689</v>
+        <v>827.0303475652366</v>
       </c>
       <c r="D4" t="n">
-        <v>509.1951216346689</v>
+        <v>661.1523547667593</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4371178854062</v>
+        <v>491.3943510174966</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>314.6872969792528</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>149.0960220050804</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755116</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>49.10728455018696</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>200.042757342374</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>618.2526391103351</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>1077.736506291248</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.995309448893</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674674</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645016</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509348</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.94640621472</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512716</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2028.825591091172</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1750.392590344277</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1463.437082214707</v>
       </c>
       <c r="W4" t="n">
-        <v>1131.794921203953</v>
+        <v>1191.410677800999</v>
       </c>
       <c r="X4" t="n">
-        <v>1100.995122556323</v>
+        <v>1191.410677800999</v>
       </c>
       <c r="Y4" t="n">
-        <v>873.5754518704312</v>
+        <v>1191.410677800999</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.9560900011804</v>
+        <v>1702.080476705852</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1397.64384356672</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>1382.541784186435</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.2556604860882</v>
+        <v>1724.339643150356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>697.5454068376323</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>524.9836953208572</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>524.9836953208572</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>524.9836953208572</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>348.2766412826135</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>182.6853663084411</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>42.78319199881565</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1233.544589050298</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1388.81010065622</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1116.783696242511</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1116.783696242511</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>889.3640255566195</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.134372851938</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9919000353618</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>518.0821152098063</v>
+        <v>423.9878150233161</v>
       </c>
       <c r="E8" t="n">
-        <v>84.30737036810143</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>304.2846042752947</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>304.2846042752947</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743897</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743897</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743897</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743897</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925637</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377074</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996789</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.393539296442</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>842.4466348842776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070394</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536191</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551418</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058791</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943382</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>521.6160192431159</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>976.668720542211</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1418.927523699856</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1838.596772925637</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925637</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925637</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925637</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925637</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925637</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.460140141861</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.068385475273</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.648714789381</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526434</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847296</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939374</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397513</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2523.388791302762</v>
+        <v>2481.810506693459</v>
       </c>
       <c r="N11" t="n">
-        <v>3292.836108510712</v>
+        <v>2481.810506693459</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263765</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097161</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055757</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4753.146960239594</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4493.92465755661</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4131.307707490437</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3726.45225290147</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3307.309789480781</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5112,25 +5112,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>1093.185322228297</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>920.6236107115219</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>754.7456179130445</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902376</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111513</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1757.815366299763</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1512.423611633176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1285.003940947284</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5282,19 +5282,19 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2135.788273300161</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>3292.836108510712</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>3292.836108510712</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
         <v>4667.644769302702</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
         <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.38502577451</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353821</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653474</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.3006880091987</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C16" t="n">
-        <v>697.7389764924236</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D16" t="n">
-        <v>531.8609836939463</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E16" t="n">
-        <v>362.1029799446836</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>185.3959259064399</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111518</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165739</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2093.912644623943</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1806.957136494374</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1534.930732080665</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1289.538977414078</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1062.119306728186</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1378.604610526435</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8298656847297</v>
+        <v>944.8298656847298</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939376</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
@@ -5519,22 +5519,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>944.0533615061025</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C19" t="n">
-        <v>771.4916499893275</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>771.4916499893275</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>601.7336462400648</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>425.026592201821</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>259.4353172276486</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111518</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2691.977765289286</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.098318867741</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U19" t="n">
-        <v>2167.665318120847</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1880.709809991277</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1608.683405577569</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1363.291650910981</v>
+        <v>1225.468103503607</v>
       </c>
       <c r="Y19" t="n">
-        <v>1135.87198022509</v>
+        <v>998.048432817715</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.51439535199</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526434</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847298</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939376</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
@@ -5759,19 +5759,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5786,16 +5786,16 @@
         <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.134188067672</v>
+        <v>947.2320137580462</v>
       </c>
       <c r="C22" t="n">
-        <v>914.5724765508968</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>748.6944837524195</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>578.9364800031568</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>402.229425964913</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>236.6381509907407</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
         <v>96.73597668111518</v>
@@ -5938,22 +5938,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2554.154217881911</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2275.721217135017</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
-        <v>1988.765709005448</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1716.739304591739</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1506.372477472551</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.952806786659</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928211</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2281.246080724682</v>
       </c>
       <c r="V25" t="n">
-        <v>1845.949044954128</v>
+        <v>1994.290572595112</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954128</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.872413514816</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085203</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702765</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W28" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4977.20847509607</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1077.292364523333</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C37" t="n">
-        <v>904.7306530065583</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="D37" t="n">
-        <v>738.852660208081</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>569.0946564588183</v>
+        <v>584.4613435928211</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2013.948813008508</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1741.9224085948</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1496.530653928212</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1269.110983242321</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,25 +7172,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.04201353898</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7336,13 +7336,13 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
         <v>2203.220781338905</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2437.972203577713</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2159.539202830818</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1872.583694701249</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1600.55729028754</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7421,31 +7421,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257732</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903958</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736207</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>632.5563420751434</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7983383258808</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>286.091284287637</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5000093134647</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.92045017358</v>
+        <v>2564.863074430083</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752035</v>
+        <v>2318.983628008538</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.60800300514</v>
+        <v>2040.550627261644</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.652494875571</v>
+        <v>1753.595119132074</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461862</v>
+        <v>1481.568714718366</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795275</v>
+        <v>1236.176960051778</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109383</v>
+        <v>1008.757289365886</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7646,49 +7646,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136697</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>970.9960463903949</v>
+        <v>1162.814665109383</v>
       </c>
       <c r="C46" t="n">
-        <v>798.4343348736198</v>
+        <v>990.2529535926078</v>
       </c>
       <c r="D46" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E46" t="n">
-        <v>462.7983383258799</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F46" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>120.5000093134637</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7834,22 +7834,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2473.041003752034</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U46" t="n">
-        <v>2194.608003005139</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V46" t="n">
         <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1635.626090461861</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.234335795274</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y46" t="n">
-        <v>1162.814665109382</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.841056877337</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>40.34758805804495</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877337</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877337</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854555</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.4600735274616</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>44.41372909529082</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>117.3049970300783</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866484</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314092</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,10 +8614,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>124.7534788371493</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>40.81776196806959</v>
       </c>
       <c r="N11" t="n">
-        <v>777.2195123312626</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,19 +8769,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8930,22 +8930,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>777.2195123312626</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>421.9740460140702</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,7 +9167,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>421.9740460140702</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.2055943867781</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049986</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>268.0111327346219</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>50.14457787893235</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>81.78272691405286</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>268.0111327346222</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>267.5985112554908</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>84.63380825304793</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23741,16 +23741,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>268.0111327346219</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>267.5985112554904</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>65.20415515853254</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>267.5985112554902</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>268.0111327346219</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.67467827192513</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>34.67467827192527</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>227.3655273957973</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.3836305457355</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>3.14686572942388</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>107.2592358276473</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>102.9863699957342</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T40" t="n">
-        <v>144.1344859240871</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.446375214271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>5.132153028922287</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>18.3192924155455</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>641098.0042553745</v>
+        <v>648873.4163767245</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>641098.0042553745</v>
+        <v>651075.2059015085</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>642548.2480808684</v>
+        <v>651075.2059015085</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632931.2907453461</v>
+        <v>632931.290745346</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659641.7144767954</v>
+        <v>659641.7144767953</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659641.7144767953</v>
+        <v>659641.7144767954</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659641.7144767952</v>
+        <v>659641.7144767953</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>321688.391934245</v>
       </c>
       <c r="C2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
         <v>321688.391934245</v>
       </c>
       <c r="E2" t="n">
-        <v>303314.3387830058</v>
+        <v>303314.3387830056</v>
       </c>
       <c r="F2" t="n">
         <v>303314.3387830058</v>
       </c>
       <c r="G2" t="n">
-        <v>303314.3387830057</v>
+        <v>303314.3387830058</v>
       </c>
       <c r="H2" t="n">
         <v>303314.3387830058</v>
       </c>
       <c r="I2" t="n">
-        <v>316114.5504824112</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="J2" t="n">
         <v>316114.5504824112</v>
@@ -26344,7 +26344,7 @@
         <v>316114.5504824112</v>
       </c>
       <c r="M2" t="n">
-        <v>316114.5504824112</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="N2" t="n">
         <v>316114.5504824113</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039038</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739058</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485614</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784446</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>158092.3824742618</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="D4" t="n">
-        <v>187055.8853966616</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
+        <v>52352.49019908697</v>
+      </c>
+      <c r="F4" t="n">
         <v>52352.490199087</v>
       </c>
-      <c r="F4" t="n">
-        <v>52352.49019908701</v>
-      </c>
       <c r="G4" t="n">
-        <v>52352.490199087</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="H4" t="n">
         <v>52352.49019908699</v>
@@ -26439,7 +26439,7 @@
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962276</v>
@@ -26448,16 +26448,16 @@
         <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="N4" t="n">
         <v>54561.82510962275</v>
-      </c>
-      <c r="N4" t="n">
-        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814208</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764751</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764752</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73624.37651385169</v>
+        <v>-113065.3833020628</v>
       </c>
       <c r="C6" t="n">
-        <v>68566.92414585827</v>
+        <v>82125.12875279233</v>
       </c>
       <c r="D6" t="n">
-        <v>62076.42891711109</v>
+        <v>99465.67312669808</v>
       </c>
       <c r="E6" t="n">
-        <v>-46356.78744575608</v>
+        <v>15630.87254136005</v>
       </c>
       <c r="F6" t="n">
-        <v>177442.5063062713</v>
+        <v>177365.9477514744</v>
       </c>
       <c r="G6" t="n">
-        <v>177442.5063062712</v>
+        <v>177365.9477514745</v>
       </c>
       <c r="H6" t="n">
-        <v>177442.5063062713</v>
+        <v>177365.9477514745</v>
       </c>
       <c r="I6" t="n">
-        <v>165469.7711341564</v>
+        <v>165446.5467947738</v>
       </c>
       <c r="J6" t="n">
-        <v>72820.02142200578</v>
+        <v>23203.43294199934</v>
       </c>
       <c r="K6" t="n">
-        <v>183834.4867669959</v>
+        <v>169997.2538597689</v>
       </c>
       <c r="L6" t="n">
-        <v>174886.8756784861</v>
+        <v>183811.2624276133</v>
       </c>
       <c r="M6" t="n">
-        <v>-2956.499843471684</v>
+        <v>48821.31781461005</v>
       </c>
       <c r="N6" t="n">
-        <v>183834.4867669961</v>
+        <v>183811.2624276135</v>
       </c>
       <c r="O6" t="n">
-        <v>183834.4867669961</v>
+        <v>183811.2624276135</v>
       </c>
       <c r="P6" t="n">
-        <v>183834.486766996</v>
+        <v>183811.2624276134</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877337</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877337</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973051996</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877337</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973051996</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877337</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973051996</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060822</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>73.13130200746645</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>23.37052387400257</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>127.2876522192561</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>212.4460364587677</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>104.2627093945167</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>79.02222156983618</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>376.5286747343915</v>
+        <v>372.7964946687787</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.750873913633</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>117.7661826744371</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.841056877337</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>40.34758805804495</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877337</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877337</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854555</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.4600735274616</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>44.41372909529082</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>117.3049970300783</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866484</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314092</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35334,22 +35334,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>124.7534788371493</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>40.81776196806959</v>
       </c>
       <c r="N11" t="n">
-        <v>777.2195123312626</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,22 +35650,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>777.2195123312626</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>421.9740460140702</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35887,7 +35887,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>421.9740460140702</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36999,10 +36999,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37324,10 +37324,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.2055943867781</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049986</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080413</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
